--- a/Табель 2021.xlsx
+++ b/Табель 2021.xlsx
@@ -57589,7 +57589,7 @@
       <pane xSplit="5" ySplit="11" topLeftCell="F76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AH86" sqref="AH86"/>
+      <selection pane="bottomRight" activeCell="Q85" sqref="Q85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
@@ -63157,7 +63157,8 @@
         <v>7</v>
       </c>
       <c r="AE60" s="23">
-        <v>11</v>
+        <f>11+3</f>
+        <v>14</v>
       </c>
       <c r="AF60" s="23"/>
       <c r="AG60" s="23"/>
@@ -63168,7 +63169,7 @@
       <c r="AL60" s="36"/>
       <c r="AM60" s="37">
         <f t="shared" si="0"/>
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AN60" s="24"/>
       <c r="AO60" s="24"/>
@@ -64778,8 +64779,8 @@
       </c>
       <c r="U75" s="23"/>
       <c r="V75" s="23">
-        <f>11+4</f>
-        <v>15</v>
+        <f>11+4+4</f>
+        <v>19</v>
       </c>
       <c r="W75" s="26">
         <v>11</v>
@@ -64817,7 +64818,7 @@
       <c r="AL75" s="23"/>
       <c r="AM75" s="37">
         <f t="shared" si="2"/>
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AN75" s="24"/>
       <c r="AO75" s="51"/>
@@ -65116,8 +65117,8 @@
         <v>7</v>
       </c>
       <c r="V78" s="36">
-        <f>11+4</f>
-        <v>15</v>
+        <f>11+4+4</f>
+        <v>19</v>
       </c>
       <c r="W78" s="36">
         <v>4</v>
@@ -65129,8 +65130,8 @@
         <v>11</v>
       </c>
       <c r="Z78" s="23">
-        <f>4+4</f>
-        <v>8</v>
+        <f>4+4+4</f>
+        <v>12</v>
       </c>
       <c r="AA78" s="23">
         <v>7</v>
@@ -65139,14 +65140,15 @@
         <v>11</v>
       </c>
       <c r="AC78" s="23">
-        <f>4+4</f>
-        <v>8</v>
+        <f>4+4+4</f>
+        <v>12</v>
       </c>
       <c r="AD78" s="23">
         <v>7</v>
       </c>
       <c r="AE78" s="23">
-        <v>11</v>
+        <f>11+3</f>
+        <v>14</v>
       </c>
       <c r="AF78" s="23"/>
       <c r="AG78" s="23"/>
@@ -65157,7 +65159,7 @@
       <c r="AL78" s="36"/>
       <c r="AM78" s="37">
         <f t="shared" si="2"/>
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="AN78" s="24"/>
       <c r="AO78" s="24"/>
@@ -65635,8 +65637,8 @@
         <v>11</v>
       </c>
       <c r="Z83" s="23">
-        <f>4+4</f>
-        <v>8</v>
+        <f>4+4+4</f>
+        <v>12</v>
       </c>
       <c r="AA83" s="23">
         <v>7</v>
@@ -65645,14 +65647,15 @@
         <v>11</v>
       </c>
       <c r="AC83" s="23">
-        <f>4+4</f>
-        <v>8</v>
+        <f>4+4+4</f>
+        <v>12</v>
       </c>
       <c r="AD83" s="23">
         <v>7</v>
       </c>
       <c r="AE83" s="23">
-        <v>11</v>
+        <f>11+3</f>
+        <v>14</v>
       </c>
       <c r="AF83" s="23"/>
       <c r="AG83" s="36"/>
@@ -65663,7 +65666,7 @@
       <c r="AL83" s="36"/>
       <c r="AM83" s="37">
         <f t="shared" si="2"/>
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="AN83" s="92"/>
       <c r="AO83" s="92"/>
@@ -65738,8 +65741,8 @@
         <v>7</v>
       </c>
       <c r="V84" s="23">
-        <f>11+4</f>
-        <v>15</v>
+        <f>11+4+4</f>
+        <v>19</v>
       </c>
       <c r="W84" s="23">
         <v>4</v>
@@ -65751,8 +65754,8 @@
         <v>11</v>
       </c>
       <c r="Z84" s="23">
-        <f>4+4</f>
-        <v>8</v>
+        <f>4+4+4</f>
+        <v>12</v>
       </c>
       <c r="AA84" s="23">
         <v>7</v>
@@ -65761,14 +65764,15 @@
         <v>11</v>
       </c>
       <c r="AC84" s="23">
-        <f>4+4</f>
-        <v>8</v>
+        <f>4+4+4</f>
+        <v>12</v>
       </c>
       <c r="AD84" s="23">
         <v>7</v>
       </c>
       <c r="AE84" s="23">
-        <v>11</v>
+        <f>11+3</f>
+        <v>14</v>
       </c>
       <c r="AF84" s="23"/>
       <c r="AG84" s="36"/>
@@ -65779,7 +65783,7 @@
       <c r="AL84" s="36"/>
       <c r="AM84" s="37">
         <f t="shared" si="2"/>
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="AN84" s="92"/>
       <c r="AO84" s="92"/>
